--- a/原始数据模板.xlsx
+++ b/原始数据模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\宝钢\GUI_Coal_Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PycharmProjects\宝钢\Gui_Coal_Base_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>山东</t>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1222,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1395,6 +1399,9 @@
       <c r="V2" s="1">
         <v>0.77500000000000002</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1">
@@ -1690,6 +1697,9 @@
       <c r="V7" s="1">
         <v>0.55200000000000005</v>
       </c>
+      <c r="AD7" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="1">
@@ -1985,6 +1995,9 @@
       <c r="V12" s="1">
         <v>1.08</v>
       </c>
+      <c r="AD12" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="1">
@@ -2222,7 +2235,7 @@
         <v>1.3460000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2398,8 +2411,11 @@
       <c r="V19" s="1">
         <v>1.1599999999999999</v>
       </c>
+      <c r="AD19" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2517,7 +2533,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2574,6 +2590,9 @@
       </c>
       <c r="V22" s="1">
         <v>0.78</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
